--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1190.265854406239</v>
+        <v>2081.958923981153</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.01606971056828</v>
+        <v>8.265616796420925</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>718.1900000000087</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>439.1</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.452887381969141</v>
+        <v>42.03150263852342</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>38.9259431076176</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.23570364914818</v>
+        <v>21.73438320357907</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.54711261803086</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.25177335971647</v>
+        <v>44.50132044556911</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1127,15 +1127,155 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>50.75499999999964</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.12499999999964</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.95499999999964</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>48.15499999999964</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.96999999999964</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.055</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>116.775</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.675</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>115.335</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>117.75</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999984</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.9850000000009</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000009</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.1650000000009</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.6300000000009</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4950000000009</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>116.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>114.675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>115.335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>117.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.9850000000009</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2300000000009</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.1650000000009</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.6300000000009</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4950000000009</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.05500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16.77500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.33500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.98500000000087</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.23000000000087</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>59.16500000000087</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>56.63000000000088</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>61.49500000000089</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2083,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2165,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2176,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2187,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2198,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2209,7 +2349,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2220,7 +2360,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2231,7 +2371,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2242,7 +2382,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2253,7 +2393,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2264,12 +2404,67 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
